--- a/Loco.xlsx
+++ b/Loco.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swhitehead/NetBeansProjects/Loco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B769083-280B-694E-B1FD-22DB6330AF9D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F7EF5-A35D-E148-9ECE-3ED1CE0C0AAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="51200" yWindow="8460" windowWidth="38400" windowHeight="23540" xr2:uid="{1041F770-18E8-8547-86F0-5B65CA8E4B6D}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Description</t>
   </si>
@@ -85,6 +85,21 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>The "hint" text used when prompting for the uer's login name</t>
+  </si>
+  <si>
+    <t>"Ok" text displayed on dialog buttons</t>
+  </si>
+  <si>
+    <t>"Cancel" text displayed on dialog buttons</t>
+  </si>
+  <si>
+    <t>"Yes" text displayed on dialog buttons when making a request from the user</t>
+  </si>
+  <si>
+    <t>"No" text displayed on dialog buttons when making a request from the user</t>
   </si>
 </sst>
 </file>
@@ -439,11 +454,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
     <col min="3" max="4" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -465,6 +481,9 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
@@ -476,6 +495,9 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -487,6 +509,9 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -498,6 +523,9 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
@@ -509,6 +537,9 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
       <c r="C6" t="s">
         <v>8</v>
       </c>

--- a/Loco.xlsx
+++ b/Loco.xlsx
@@ -5,17 +5,29 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/swhitehead/NetBeansProjects/Loco/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shanewhitehead/Development/Loco/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313F7EF5-A35D-E148-9ECE-3ED1CE0C0AAD}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4487A1C6-C002-8E48-B3A5-D92AFFE0948D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="8460" windowWidth="38400" windowHeight="23540" xr2:uid="{1041F770-18E8-8547-86F0-5B65CA8E4B6D}"/>
+    <workbookView xWindow="38400" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{AB4185BB-ECAF-4100-9D00-59AC9C029A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="sentence_2252" localSheetId="0">Sheet1!$F$2</definedName>
+    <definedName name="sentence_2255" localSheetId="0">Sheet1!$F$3</definedName>
+    <definedName name="sentence_2260" localSheetId="0">Sheet1!$F$4</definedName>
+    <definedName name="sentence_2263" localSheetId="0">Sheet1!$F$5</definedName>
+    <definedName name="sentence_2266" localSheetId="0">Sheet1!$F$6</definedName>
+    <definedName name="sentence_2269" localSheetId="0">Sheet1!$F$7</definedName>
+    <definedName name="sentence_2272" localSheetId="0">Sheet1!$F$8</definedName>
+    <definedName name="sentence_2275" localSheetId="0">Sheet1!$F$9</definedName>
+    <definedName name="sentence_2278" localSheetId="0">Sheet1!$F$9</definedName>
+    <definedName name="sentence_2283" localSheetId="0">Sheet1!$F$11</definedName>
+  </definedNames>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,94 +37,611 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>iOS</t>
-  </si>
-  <si>
-    <t>Android</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="111">
+  <si>
+    <t>Thuraya WE cannot read device temperature</t>
+  </si>
+  <si>
+    <t>Thuraya WE cannot read antenna temperature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuraya WE cannot read satellite temperature </t>
+  </si>
+  <si>
+    <t>Thuraya WE cannot read battery temperature</t>
+  </si>
+  <si>
+    <t>Alert</t>
+  </si>
+  <si>
+    <t>The battery could not be detected</t>
+  </si>
+  <si>
+    <t>The battery is unable to charge</t>
+  </si>
+  <si>
+    <t>Thuraya WE cannot receive location data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thuraya WE cannot communicate over Wi-Fi transceiver </t>
+  </si>
+  <si>
+    <t>Thuraya WE cannot communicate with satellite transceiver</t>
+  </si>
+  <si>
+    <t>Thuraya WE cannot communicate with cellular transceiver</t>
+  </si>
+  <si>
+    <t>String Id</t>
   </si>
   <si>
     <t>English</t>
   </si>
   <si>
-    <t>Login.placeholder.name</t>
-  </si>
-  <si>
-    <t>Login_placeholder_name</t>
-  </si>
-  <si>
-    <t>Action.text.yes</t>
-  </si>
-  <si>
-    <t>Action.text.no</t>
-  </si>
-  <si>
-    <t>Action.text.cancel</t>
-  </si>
-  <si>
-    <t>Action.text.ok</t>
-  </si>
-  <si>
-    <t>Action_text_ok</t>
-  </si>
-  <si>
-    <t>Action_text_cancel</t>
-  </si>
-  <si>
-    <t>Action_text_yes</t>
-  </si>
-  <si>
-    <t>Action_text_no</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Ok</t>
-  </si>
-  <si>
-    <t>Cancel</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>The "hint" text used when prompting for the uer's login name</t>
-  </si>
-  <si>
-    <t>"Ok" text displayed on dialog buttons</t>
-  </si>
-  <si>
-    <t>"Cancel" text displayed on dialog buttons</t>
-  </si>
-  <si>
-    <t>"Yes" text displayed on dialog buttons when making a request from the user</t>
-  </si>
-  <si>
-    <t>"No" text displayed on dialog buttons when making a request from the user</t>
+    <t>Arabic</t>
+  </si>
+  <si>
+    <t>systemalert.description.battery_presence</t>
+  </si>
+  <si>
+    <t>systemalert.description.charger_fault</t>
+  </si>
+  <si>
+    <t>systemalert.description.pcb_temperature_sensors</t>
+  </si>
+  <si>
+    <t>systemalert.description.radome_temperature_sensors</t>
+  </si>
+  <si>
+    <t>systemalert.description.gnss_feed</t>
+  </si>
+  <si>
+    <t>systemalert.description.battery_temperature_sensors</t>
+  </si>
+  <si>
+    <t>systemalert.description.wifi_interface</t>
+  </si>
+  <si>
+    <t>systemalert.description.satellite_temperature</t>
+  </si>
+  <si>
+    <t>systemalert.description.cellular_modem</t>
+  </si>
+  <si>
+    <t>systemalert.description.satellite_modem</t>
+  </si>
+  <si>
+    <t>تعذر اكتشاف البطارية</t>
+  </si>
+  <si>
+    <t>البطارية غير قادرة على الشحن</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها قراءة درجة حرارة الجهاز</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها قراءة درجة حرارة الهوائي</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها قراءة درجة حرارة القمر الصناعي</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها قراءة درجة حرارة البطارية</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها استقبال بيانات الموقع</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها التواصل عبر جهاز الإرسال والاستقبال Wi-Fi</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها التواصل مع جهاز الإرسال والاستقبال عبر الأقمار الصناعية</t>
+  </si>
+  <si>
+    <t>Thuraya WE لا يمكنها التواصل مع جهاز الإرسال والاستقبال الخلوي</t>
+  </si>
+  <si>
+    <t>Chinese</t>
+  </si>
+  <si>
+    <t>电池无法检测到</t>
+  </si>
+  <si>
+    <t>电池无法充电</t>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>不能读取设备温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>无法读取天线温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>无法读取卫星温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>无法读取电池温度</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>无法接收位置数据</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>不能通过</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Wi-Fi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>收发器进行通信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>不能与卫星收发器通信</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>无法与移动蜂窝收发器通信</t>
+    </r>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>German</t>
+  </si>
+  <si>
+    <t>Russian</t>
+  </si>
+  <si>
+    <t>Spanish</t>
+  </si>
+  <si>
+    <t>Turkish</t>
+  </si>
+  <si>
+    <t>Japanese</t>
+  </si>
+  <si>
+    <t>La batterie n'a pas pu être détectée</t>
+  </si>
+  <si>
+    <t>La batterie ne peut pas charger</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas lire la température de l'appareil</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas lire la température de l'antenne</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas lire la température du satellite</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas lire la température de la batterie</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas recevoir de données de localisation</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas communiquer via la Wi-Fi de l'émetteur-récepteur</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas communiquer avec l'émetteur-récepteur satellite</t>
+  </si>
+  <si>
+    <t>Thuraya WE ne peut pas communiquer avec l'émetteur-récepteur cellulaire</t>
+  </si>
+  <si>
+    <t>Die Batterie konnte nicht erkannt werden</t>
+  </si>
+  <si>
+    <t>Die Batterie kann nicht aufgeladen werden</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann die Gerätetemperatur nicht messen</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann die Antennentemperatur nicht messen</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann die Satellitentemperatur nicht messen</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann die Batterietemperatur nicht messen</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann keine Positionsdaten empfangen</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann nicht über den Wi-Fi-Transceiver kommunizieren</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann nicht mit dem Satelliten-Transceiver kommunizieren</t>
+  </si>
+  <si>
+    <t>Thuraya WE kann nicht mit dem Mobilfunk-Transceiver kommunizieren</t>
+  </si>
+  <si>
+    <t>バッテリーを検出できませんでした</t>
+  </si>
+  <si>
+    <t>バッテリーが充電できません</t>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>はデバイスの温度を読み取れません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>はアンテナ温度を読み取ることができません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>は衛星の温度を読み取ることができません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>はバッテリー温度を読み取ることができません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>は位置データを受信することができません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>は</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">Wi-Fi </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>トランシーバーで通信することができません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>は衛星</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>トランシーバーと通信できません</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Thuraya WE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>はセルラー</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>トランシーバーと通信できません</t>
+    </r>
+  </si>
+  <si>
+    <t>No se pudo detectar la batería</t>
+  </si>
+  <si>
+    <t>La batería no se puede cargar</t>
+  </si>
+  <si>
+    <t>Thuraya WE no puede leer la temperatura del dispositivo</t>
+  </si>
+  <si>
+    <t>Thuraya WE no puede leer la temperatura de la antena</t>
+  </si>
+  <si>
+    <t>Thuraya WE no puede leer la temperatura del satélite</t>
+  </si>
+  <si>
+    <t>Thuraya WE no puede leer la temperatura de la batería</t>
+  </si>
+  <si>
+    <t>Thuraya WE no puede recibir datos de ubicación</t>
+  </si>
+  <si>
+    <t>Thuraya WE no puede comunicarse a través del transceptor Wi-Fi</t>
+  </si>
+  <si>
+    <t>Thuraya WE no se puede comunicar con el transceptor por satélite</t>
+  </si>
+  <si>
+    <t>Thuraya WE no se puede comunicar con el transceptor móvil</t>
+  </si>
+  <si>
+    <t>Pil tespit edilemedi</t>
+  </si>
+  <si>
+    <t>Pil şarj olmuyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE cihaz sıcaklığını ölçemiyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE anten sıcaklığını ölçemiyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE uydu sıcaklığını ölçemiyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE pil sıcaklığını ölçemiyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE konum verilerini alamıyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE, Wi-Fi aktarıcısı üzerinden iletişim kuramıyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE, uydu aktarıcısıyla iletişim kuramıyor</t>
+  </si>
+  <si>
+    <t>Thuraya WE, hücresel aktarıcısıyla iletişim kuramıyor</t>
+  </si>
+  <si>
+    <t>Батарея не найдена</t>
+  </si>
+  <si>
+    <t>Невозможно зарядить батарею</t>
+  </si>
+  <si>
+    <t>Невозможно определить температуру устройства</t>
+  </si>
+  <si>
+    <t>Невозможно определить температуру антенны</t>
+  </si>
+  <si>
+    <t>Невозможно определить температуру спутникового трансивера</t>
+  </si>
+  <si>
+    <t>Невозможно определить температуру батареи</t>
+  </si>
+  <si>
+    <t>Thuraya WE не может получить данные о местоположении</t>
+  </si>
+  <si>
+    <t>Thuraya WE не может передать данные через трансивер Wi-Fi</t>
+  </si>
+  <si>
+    <t>Thuraya WE не может установить связь со спутниковым трансивером</t>
+  </si>
+  <si>
+    <t>Thuraya WE не может установить связь с сотовым трансивером</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,7 +652,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -131,12 +660,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" readingOrder="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -450,107 +1028,417 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44FA3370-406D-B149-8080-88FEAB71D9F7}">
-  <dimension ref="A1:E6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBCBB6E9-874A-4437-A378-6CD295293501}">
+  <dimension ref="C1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="193.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.83203125" customWidth="1"/>
-    <col min="3" max="4" width="21.83203125" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="3" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="57.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="66.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="63" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="61.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="58.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="50.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="67.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="3:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
+      <c r="F7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="8" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>20</v>
       </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" t="s">
+    <row r="10" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="19" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="F11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>